--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -1,26 +1,316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="01_社内MTG" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>要望</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内管理システム（社員情報管理システム）</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当：PST商事 下山さん</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シモヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報の管理</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙（履歴書など）、Excel</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リレキショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資料の紛失（昔からいる人）</t>
+    <rPh sb="0" eb="2">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フンシツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資料の管理の負担</t>
+    <rPh sb="0" eb="2">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人事部が管理</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社情報</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総社員数・・・600</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シャインスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本社</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仙台</t>
+    <rPh sb="0" eb="2">
+      <t>センダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーへの確認事項</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の運用</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelに登録されている情報</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何を登録している？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用範囲</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本社のみ？全社で？</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーアクセス（利用権限）</t>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理は人事部</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員コード、部署コード、支店コードなどはある？</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他部署からの利用は？（閲覧のみ、など）</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +338,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +639,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -192,16 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の運用</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ウンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Excelに登録されている情報</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -290,6 +280,101 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの見方</t>
+    <rPh sb="4" eb="6">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員の一覧で見る？</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人の詳細情報で見る？</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員の検索機能</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんな機能が欲しいか？</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の運用について</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新システムについて</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閲覧できる情報の範囲（権限による制限）</t>
+    <rPh sb="0" eb="2">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -738,47 +823,82 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01_社内MTG" sheetId="1" r:id="rId1"/>
+    <sheet name="02_ユーザー打合せ（一回目）" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -375,6 +376,709 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PST商事</t>
+    <rPh sb="3" eb="5">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下山部長</t>
+    <rPh sb="0" eb="2">
+      <t>シモヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソナテック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向山</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッチェル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行の運用</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全社員の情報を登録</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全社600人</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報の更新（結婚、引っ越しなど）がされていない</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッコン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報＋publicな情報</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員証を作った際の写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書の写真</t>
+    <rPh sb="0" eb="3">
+      <t>リレキショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新システム</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月に社員証を作り直す→写真撮り直し→システムに流用</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社年月日＋入社年内で連番</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支社＋部署の単位でID可</t>
+    <rPh sb="0" eb="2">
+      <t>シシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象データ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicな情報（名刺に載るような情報）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報は対象外（将来は組み込みたい）</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内線、営業用の携帯番号</t>
+    <rPh sb="0" eb="2">
+      <t>ナイセン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイギョウヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰でも参照可能</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録・編集・削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人事部→すべて可能</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人→編集のみ可能</t>
+    <rPh sb="0" eb="2">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID＋パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内ネットワーク内で使用可能</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請・承認について</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は不要</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来、個人情報を取り扱うことになったら組み込む予定</t>
+    <rPh sb="0" eb="2">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧→ハイパーリンク→個人の詳細情報画面（写真付き）</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ移行</t>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelから一括でデータベースに登録</t>
+    <rPh sb="7" eb="9">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件入力→一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社年月日、部署など→詳細は次回打合せで詰める</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ウチアワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例）役員会議で人事異動→誰が同期？、部署の一覧を出す、など</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報の変更履歴が欲しい→誰が変更したかわからなくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初の登録者＋登録年月日</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴の閲覧→管理者のみ（人事部？）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更者＋変更年月日 ← 変更の都度</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回打合せ</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウチアワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ、画面遷移の提案</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイアン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -727,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -906,4 +1610,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_社内MTG" sheetId="1" r:id="rId1"/>
     <sheet name="02_ユーザー打合せ（一回目）" sheetId="2" r:id="rId2"/>
+    <sheet name="03_画面（案）" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -824,16 +826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使い方</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一覧→ハイパーリンク→個人の詳細情報画面（写真付き）</t>
     <rPh sb="0" eb="2">
       <t>イチラン</t>
@@ -1079,6 +1071,649 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内線</t>
+    <rPh sb="0" eb="2">
+      <t>ナイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯（会社貸与）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方/機能</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧・検索</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用</t>
+    <rPh sb="0" eb="4">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般ユーザー用</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←メニュー（仮）</t>
+    <rPh sb="6" eb="7">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜一般＞</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報管理</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜管理＞</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>××</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本社営業</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本社人事</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋営業</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪営業</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社時期</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**年**月**日</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY年MM月DD日</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報詳細</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報　新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報　修正</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>******</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○　××</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本社△△部</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-xxxx-xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20170401001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード（確認）</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報　削除</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜管理者用＞</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜一般社員用＞</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜検索条件＞</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上の内容で登録します</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上の内容で修正します</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よろしいですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前画面に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除する</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上の内容で削除します</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜登録／修正／削除＞</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜詳細画面（管理者）＞</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜詳細画面（一般）＞</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※自分以外の社員情報</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※自分の社員情報</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1087,7 +1722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1737,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1111,7 +1763,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1119,12 +1771,273 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1616,8 +2529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1839,82 +2752,2134 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N158"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
         <v>87</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="26">
+        <v>20170401001</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="26">
+        <v>20170401002</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="26">
+        <v>20170401003</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="26">
+        <v>20170401004</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="26">
+        <v>20170401001</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="26">
+        <v>20170401002</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="26">
+        <v>20170401003</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="7"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="26">
+        <v>20170401004</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="I46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="8"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="8"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="8"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="8"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="8"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="8"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="8"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="I64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="8"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="8"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="8"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B72" s="6"/>
+      <c r="C72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="8"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="8"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="11"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B82" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5"/>
+      <c r="I82" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="8"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B84" s="6"/>
+      <c r="C84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="8"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M88" s="7"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="8"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="8"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B91" s="6"/>
+      <c r="G91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="11"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B114" s="6"/>
+      <c r="C114" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B117" s="6"/>
+      <c r="C117" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B125" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B127" s="6"/>
+      <c r="C127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B133" s="6"/>
+      <c r="C133" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B134" s="6"/>
+      <c r="C134" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B135" s="6"/>
+      <c r="C135" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B136" s="6"/>
+      <c r="C136" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B143" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B145" s="6"/>
+      <c r="C145" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B151" s="6"/>
+      <c r="C151" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B152" s="6"/>
+      <c r="C152" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B153" s="6"/>
+      <c r="C153" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B154" s="6"/>
+      <c r="C154" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B155" s="6"/>
+      <c r="C155" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01_社内MTG" sheetId="1" r:id="rId1"/>
-    <sheet name="02_ユーザー打合せ（一回目）" sheetId="2" r:id="rId2"/>
+    <sheet name="02_ユーザー打合せ（1回目）" sheetId="2" r:id="rId2"/>
     <sheet name="03_画面（案）" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="04_ユーザー打合せ（2回目）" sheetId="6" r:id="rId4"/>
+    <sheet name="03_画面（案） (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="201">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -1488,13 +1491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード（確認）</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報　削除</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1637,19 +1633,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以上の内容で削除します</t>
-    <rPh sb="0" eb="2">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＜登録／修正／削除＞</t>
     <rPh sb="1" eb="3">
       <t>トウロク</t>
@@ -1714,6 +1697,528 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正する</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上の内容を削除します</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>******</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20170401001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定事項</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上部</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今ログインしている人の名前</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理権限を持つ人は色を変えるなど→何色？</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナニイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社年月（from/to）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内線or携帯番号</t>
+    <rPh sb="0" eb="2">
+      <t>ナイセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ソート順・・・基本：登録順、何か条件指定：役職順</t>
+    <rPh sb="4" eb="5">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録／更新／削除のあと→メイン画面に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID・・・手入力</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード・・・伏せずに通常表示</t>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真の添付機能は不要</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真を表示する（写真が正しいか、ちゃんとサーバーに登録されているか確認するため）</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面（管理・一般）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点、部署、課、役職</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点、部署、課、役職（管理のみ変更可）</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要、直接確認画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面（管理／一般）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全般</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦400×横300</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名・・・社員ID.jpg</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動で登録できないか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者となる権限をもつ人→人事部＋α（社長、部門長など特別に権限を持つ人）</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シャチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ブモンチョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1722,7 +2227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1747,6 +2252,23 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1995,7 +2517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2038,6 +2560,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2529,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2841,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView showGridLines="0" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2871,7 +3405,9 @@
       <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>
     </row>
@@ -2887,7 +3423,9 @@
       <c r="C6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="8"/>
     </row>
@@ -2907,7 +3445,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -2928,7 +3466,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -3160,7 +3698,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -3181,7 +3719,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3393,7 +3931,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -3406,7 +3944,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
       <c r="I46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3430,15 +3968,23 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="8"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="K48" s="7"/>
-      <c r="L48" s="28"/>
+      <c r="L48" s="28" t="s">
+        <v>140</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
@@ -3449,7 +3995,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="8"/>
@@ -3459,20 +4005,16 @@
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
-      <c r="C50" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="8"/>
       <c r="I50" s="6"/>
@@ -3586,26 +4128,22 @@
         <v>45</v>
       </c>
       <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="5"/>
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="6"/>
-      <c r="C56" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="8"/>
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.15">
@@ -3618,8 +4156,8 @@
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="11"/>
       <c r="N57" s="8"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.15">
@@ -3631,7 +4169,7 @@
       <c r="G58" s="8"/>
       <c r="I58" s="6"/>
       <c r="J58" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3647,7 +4185,7 @@
       <c r="G59" s="8"/>
       <c r="I59" s="6"/>
       <c r="J59" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -3669,10 +4207,10 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M60" s="31" t="s">
         <v>149</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>150</v>
       </c>
       <c r="N60" s="8"/>
     </row>
@@ -3700,7 +4238,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="I64" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3751,7 +4289,7 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="8"/>
@@ -3761,20 +4299,2293 @@
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="M67" s="7"/>
       <c r="N67" s="8"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="6"/>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="8"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="8"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="8"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B72" s="6"/>
+      <c r="C72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="8"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="8"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="8"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="11"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B82" s="38" t="s">
         <v>141</v>
       </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
+      <c r="I82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B84" s="41"/>
+      <c r="C84" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="42"/>
+      <c r="G84" s="43"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B85" s="41"/>
+      <c r="C85" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B86" s="41"/>
+      <c r="C86" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="42"/>
+      <c r="G86" s="43"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B87" s="41"/>
+      <c r="C87" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="42"/>
+      <c r="G87" s="43"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B88" s="41"/>
+      <c r="C88" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="42"/>
+      <c r="G88" s="43"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M88" s="7"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B89" s="41"/>
+      <c r="C89" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="43"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B90" s="41"/>
+      <c r="C90" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="42"/>
+      <c r="G90" s="43"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B91" s="41"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="43"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91" s="7"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B92" s="41"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="43"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="43"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="43"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="43"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="43"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="49"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B114" s="6"/>
+      <c r="C114" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B117" s="6"/>
+      <c r="C117" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B125" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B127" s="6"/>
+      <c r="C127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B133" s="6"/>
+      <c r="C133" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B134" s="6"/>
+      <c r="C134" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B135" s="6"/>
+      <c r="C135" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B136" s="6"/>
+      <c r="C136" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B143" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B145" s="6"/>
+      <c r="C145" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B151" s="6"/>
+      <c r="C151" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B152" s="6"/>
+      <c r="C152" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B153" s="6"/>
+      <c r="C153" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F153" s="2"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B154" s="6"/>
+      <c r="C154" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B155" s="6"/>
+      <c r="C155" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N158"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="26">
+        <v>20170401001</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="26">
+        <v>20170401002</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="26">
+        <v>20170401003</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="26">
+        <v>20170401004</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="26">
+        <v>20170401001</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="26">
+        <v>20170401002</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="26">
+        <v>20170401003</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="7"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="26">
+        <v>20170401004</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="I46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="8"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="8"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="8"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="8"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="8"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="8"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="I64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="2"/>
       <c r="G68" s="8"/>
       <c r="I68" s="6"/>
@@ -3933,7 +6744,7 @@
       <c r="G76" s="8"/>
       <c r="I76" s="6"/>
       <c r="J76" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -3949,7 +6760,7 @@
       <c r="G77" s="8"/>
       <c r="I77" s="6"/>
       <c r="J77" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -3971,10 +6782,10 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M78" s="31" t="s">
         <v>149</v>
-      </c>
-      <c r="M78" s="31" t="s">
-        <v>150</v>
       </c>
       <c r="N78" s="8"/>
     </row>
@@ -4001,16 +6812,16 @@
       <c r="N80" s="7"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5"/>
+      <c r="B82" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
       <c r="I82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4019,12 +6830,12 @@
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
       <c r="I83" s="6"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -4033,16 +6844,16 @@
       <c r="N83" s="8"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="41"/>
+      <c r="C84" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="28" t="s">
+      <c r="D84" s="42"/>
+      <c r="E84" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="43"/>
       <c r="I84" s="6"/>
       <c r="J84" s="7" t="s">
         <v>51</v>
@@ -4055,16 +6866,16 @@
       <c r="N84" s="8"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="41"/>
+      <c r="C85" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="42"/>
+      <c r="E85" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
       <c r="I85" s="6"/>
       <c r="J85" s="7" t="s">
         <v>88</v>
@@ -4077,16 +6888,16 @@
       <c r="N85" s="8"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B86" s="6"/>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7" t="s">
+      <c r="D86" s="42"/>
+      <c r="E86" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="43"/>
       <c r="I86" s="6"/>
       <c r="J86" s="7" t="s">
         <v>58</v>
@@ -4099,16 +6910,16 @@
       <c r="N86" s="8"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="41"/>
+      <c r="C87" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
+      <c r="D87" s="42"/>
+      <c r="E87" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="43"/>
       <c r="I87" s="6"/>
       <c r="J87" s="7" t="s">
         <v>89</v>
@@ -4121,16 +6932,16 @@
       <c r="N87" s="8"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B88" s="6"/>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7" t="s">
+      <c r="D88" s="42"/>
+      <c r="E88" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="43"/>
       <c r="I88" s="6"/>
       <c r="J88" s="7" t="s">
         <v>90</v>
@@ -4143,14 +6954,14 @@
       <c r="N88" s="8"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="41"/>
+      <c r="C89" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="43"/>
       <c r="I89" s="6"/>
       <c r="J89" s="7" t="s">
         <v>91</v>
@@ -4161,16 +6972,16 @@
       <c r="N89" s="8"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B90" s="6"/>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="41"/>
+      <c r="C90" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="42"/>
+      <c r="E90" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="43"/>
       <c r="I90" s="6"/>
       <c r="J90" s="7" t="s">
         <v>92</v>
@@ -4183,8 +6994,12 @@
       <c r="N90" s="8"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B91" s="6"/>
-      <c r="G91" s="8"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="43"/>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -4193,12 +7008,12 @@
       <c r="N91" s="8"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="43"/>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -4207,12 +7022,12 @@
       <c r="N92" s="8"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="43"/>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -4221,15 +7036,15 @@
       <c r="N93" s="8"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="43"/>
       <c r="I94" s="6"/>
       <c r="J94" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -4237,15 +7052,15 @@
       <c r="N94" s="8"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="43"/>
       <c r="I95" s="6"/>
       <c r="J95" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -4253,34 +7068,34 @@
       <c r="N95" s="8"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="12" t="s">
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G96" s="8"/>
+      <c r="G96" s="43"/>
       <c r="I96" s="6"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M96" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N96" s="8"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B97" s="9"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="11"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="49"/>
       <c r="I97" s="9"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -4290,7 +7105,7 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.15">
@@ -4435,7 +7250,7 @@
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>97</v>
@@ -4455,12 +7270,12 @@
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.15">
@@ -4621,7 +7436,7 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
@@ -4789,7 +7604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J24"/>
   <sheetViews>
@@ -4887,4 +7702,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -11,7 +11,7 @@
     <sheet name="02_ユーザー打合せ（1回目）" sheetId="2" r:id="rId2"/>
     <sheet name="03_画面（案）" sheetId="3" r:id="rId3"/>
     <sheet name="04_ユーザー打合せ（2回目）" sheetId="6" r:id="rId4"/>
-    <sheet name="03_画面（案） (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="05_画面（案）" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="215">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -2219,6 +2219,158 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>201704001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※下3桁は手動採番</t>
+    <rPh sb="1" eb="2">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社年月＋下3桁</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点コード</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署コード</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課コード</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職コード</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字3桁</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字2桁</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字1桁</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※部署コードの下1桁＝課コードの先頭1桁</t>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※部署コードの先頭1桁＝拠点コード</t>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※部署コードの先頭1桁</t>
+    <rPh sb="1" eb="3">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5329,10 +5481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D92"/>
+  <dimension ref="A2:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5387,258 +5539,319 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D41" t="s">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D46" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D47" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C71" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C92" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5652,8 +5865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N158"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5683,7 +5896,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="8"/>

--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -11,16 +11,15 @@
     <sheet name="02_ユーザー打合せ（1回目）" sheetId="2" r:id="rId2"/>
     <sheet name="03_画面（案）" sheetId="3" r:id="rId3"/>
     <sheet name="04_ユーザー打合せ（2回目）" sheetId="6" r:id="rId4"/>
-    <sheet name="05_画面（案）" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="214">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -2220,10 +2219,6 @@
     <rPh sb="35" eb="36">
       <t>ヒト</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>201704001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3527,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N158"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView showGridLines="0" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5483,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5566,63 +5561,63 @@
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
@@ -5862,1962 +5857,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N158"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="26">
-        <v>20170401001</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="26">
-        <v>20170401002</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="26">
-        <v>20170401003</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="26">
-        <v>20170401004</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="26">
-        <v>20170401001</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="26">
-        <v>20170401002</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="26">
-        <v>20170401003</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="26">
-        <v>20170401004</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
-      <c r="I46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B48" s="6"/>
-      <c r="C48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="8"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="M48" s="7"/>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="8"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M49" s="7"/>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="8"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="8"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M51" s="7"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="8"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M52" s="7"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M54" s="7"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="8"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="8"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="8"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="11"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
-      <c r="I64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B66" s="6"/>
-      <c r="C66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="8"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="M66" s="7"/>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="8"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="8"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M68" s="7"/>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="8"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M69" s="7"/>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="8"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M70" s="7"/>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="8"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B72" s="6"/>
-      <c r="C72" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="8"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M72" s="7"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="8"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="8"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="8"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M78" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="11"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B82" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="40"/>
-      <c r="I82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="5"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="43"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B84" s="41"/>
-      <c r="C84" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" s="42"/>
-      <c r="E84" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" s="7"/>
-      <c r="L84" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="M84" s="7"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B85" s="41"/>
-      <c r="C85" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M85" s="7"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B86" s="41"/>
-      <c r="C86" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="43"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M86" s="7"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B87" s="41"/>
-      <c r="C87" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F87" s="42"/>
-      <c r="G87" s="43"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M87" s="7"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B88" s="41"/>
-      <c r="C88" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="F88" s="42"/>
-      <c r="G88" s="43"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M88" s="7"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B89" s="41"/>
-      <c r="C89" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="43"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B90" s="41"/>
-      <c r="C90" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="43"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M90" s="7"/>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B91" s="41"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="43"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B92" s="41"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="43"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="8"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="43"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" s="41"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="43"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" s="41"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="43"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F96" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G96" s="43"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M96" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="49"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="11"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B108" s="6"/>
-      <c r="C108" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B114" s="6"/>
-      <c r="C114" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B116" s="6"/>
-      <c r="C116" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B118" s="6"/>
-      <c r="C118" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B121" s="9"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B125" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B127" s="6"/>
-      <c r="C127" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F127" s="2"/>
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B133" s="6"/>
-      <c r="C133" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B134" s="6"/>
-      <c r="C134" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B135" s="6"/>
-      <c r="C135" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B136" s="6"/>
-      <c r="C136" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B137" s="6"/>
-      <c r="C137" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B140" s="9"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="11"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B143" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="8"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B145" s="6"/>
-      <c r="C145" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F145" s="2"/>
-      <c r="G145" s="8"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G148" s="8"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B151" s="6"/>
-      <c r="C151" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F151" s="2"/>
-      <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B152" s="6"/>
-      <c r="C152" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="8"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B153" s="6"/>
-      <c r="C153" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B154" s="6"/>
-      <c r="C154" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="8"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B155" s="6"/>
-      <c r="C155" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B156" s="6"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="8"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G157" s="8"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B158" s="9"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J24"/>
   <sheetViews>
@@ -7917,7 +5956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>

--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01_社内MTG" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="04_ユーザー打合せ（2回目）" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="8" r:id="rId6"/>
+    <sheet name="05_チーム内打ち合わせ" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="225">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -2366,6 +2367,215 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーへの確認事項について</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム要求について</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードウェア・ソフトウェア</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <r>
+      <t>・社外から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VPN接続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を行った場合、社内ネットワーク同様、利用可能</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社内ネットワークのサーバルームにPCを新設</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>し、運用</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache Tomcat Webアプリケーションサーバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ノートPCでもサーバーとして問題なく運用できる規模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を想定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面のログインユーザー名（管理者）は何色で表示する？（赤色を想定）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナニイロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel等のハイパーリンクから詳細情報画面に遷移する場合の動きについて確認（こちらの提案を提示）</t>
+    <rPh sb="5" eb="6">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーMSGの表示場所は？（画面上部を想定）</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2374,7 +2584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2418,6 +2628,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -5478,8 +5696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6204,4 +6422,76 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="265">
   <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
@@ -2502,31 +2502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイン画面のログインユーザー名（管理者）は何色で表示する？（赤色を想定）</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ナニイロ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Excel等のハイパーリンクから詳細情報画面に遷移する場合の動きについて確認（こちらの提案を提示）</t>
     <rPh sb="5" eb="6">
       <t>ナド</t>
@@ -2561,7 +2536,229 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーMSGの表示場所は？（画面上部を想定）</t>
+    <t>規模</t>
+    <rPh sb="0" eb="2">
+      <t>キボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのサーバー？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーの設置場所</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のサーバーを使う？新たに買う？</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のサーバーは何？</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社外から社内ネットワークに接続するケース</t>
+    <rPh sb="0" eb="2">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPN接続を想定？</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点～役職</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手入力？</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストBOX？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在登録されているパスワードは表示してもよいのか？</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面・削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（修正のみ）古いパスワードは入れさせなくてもいいのか？</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧の並べ替え</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名をクリック→その項目順に並び替える？（一回クリック：昇順、もう一回クリック：降順）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須：社員ID、パス、氏名、入社年月、拠点</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーMSGの表示場所は？（入力画面のタイトルの下を想定）→OK</t>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
@@ -2569,13 +2766,489 @@
       <t>バショ</t>
     </rPh>
     <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録、修正、削除後のメッセージ（登録しました、など）はメイン画面のヘッダー部の下に表示→OK</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
     <rPh sb="16" eb="18">
-      <t>ジョウブ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移の流れも一応確認（正常終了時、メイン画面に戻る※詳細画面から修正・削除に移動した場合も含む）→OK</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時の動き、画面遷移についてこちらの提案を提示、確認→OK</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCサーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイド化</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPN接続</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面のリストで、管理者権限を持つユーザーは何色で表示する？名称だけ？一行丸々？（赤色を想定）→青文字で一行丸々（管理者がログイン時のみ）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナニイロ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イチギョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>マルマル</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面が管理者用か判別させる（ユーザー名の色変更、など）は必要か？→ユーザー名を大文字</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>オオモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザー名→敬称は「さん」</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社時期（入社年月）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来れば手入力と併用</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索条件に氏名は必要？（前方一致？）→不要</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッチ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>ソウテイ</t>
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋と本社という検索は今回はいらない（使うケースが思い浮かばない）→不便なら次回以降追加</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホンシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フベン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録した際に入力したパスワード→どうやって本人に伝える？（運用、仕様）→運用でカバー</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→役員会など→プレゼン用IDを用意する（運用）</t>
+    <rPh sb="1" eb="4">
+      <t>ヤクインカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在登録されているパスワードは表示させるか？→非表示でOK</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前のパスと新しいパスを入力させる、最初は新旧ともに入力欄空白（空白はエラー）、全角半角判定</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンキュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前のパスは表示しておく</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいパスを入力してもらう、全半角判定</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データーベースとアプリケーションを同じサーバー？別のサーバー？</t>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3740,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N158"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
@@ -6426,67 +7099,268 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D19"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
+      <c r="E61" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="H68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="H69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/打合せメモ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7665" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01_社内MTG" sheetId="1" r:id="rId1"/>
@@ -2702,40 +2702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名をクリック→その項目順に並び替える？（一回クリック：昇順、もう一回クリック：降順）</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イッカイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必須：社員ID、パス、氏名、入社年月、拠点</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -2958,37 +2924,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイン画面が管理者用か判別させる（ユーザー名の色変更、など）は必要か？→ユーザー名を大文字</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カンリシャヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンベツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>オオモジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインユーザー名→敬称は「さん」</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
@@ -3249,6 +3184,80 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名をクリック→その項目順に並び替える？（一回クリック：昇順、もう一回クリック：降順）→今回は対応しない</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面が管理者用か判別させる（ユーザー名の色変更、など）は必要か？→ユーザー名を青文字</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3916,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -4101,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -6369,7 +6378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
@@ -7101,8 +7110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7114,42 +7123,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
@@ -7159,7 +7168,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
@@ -7177,15 +7186,15 @@
         <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
@@ -7198,10 +7207,10 @@
         <v>232</v>
       </c>
       <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" t="s">
         <v>251</v>
-      </c>
-      <c r="F26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
@@ -7211,7 +7220,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
@@ -7221,7 +7230,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
@@ -7246,23 +7255,23 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
@@ -7272,7 +7281,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
@@ -7282,7 +7291,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
@@ -7334,7 +7343,7 @@
         <v>226</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.15">
@@ -7342,7 +7351,7 @@
         <v>227</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.15">
@@ -7350,7 +7359,7 @@
         <v>228</v>
       </c>
       <c r="H69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.15">
@@ -7360,7 +7369,7 @@
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
